--- a/用例数据/深A/信用保护合约/CSXX现金结算/测试结果.xlsx
+++ b/用例数据/深A/信用保护合约/CSXX现金结算/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog" sheetId="1" r:id="rId1"/>
@@ -902,15 +902,17 @@
   <dimension ref="A1:EI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1331,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -1652,7 +1654,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
@@ -1975,38 +1977,38 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/深A/信用保护合约/CSXX现金结算/测试结果.xlsx
+++ b/用例数据/深A/信用保护合约/CSXX现金结算/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog" sheetId="1" r:id="rId1"/>
@@ -902,17 +902,15 @@
   <dimension ref="A1:EI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1329,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -1654,7 +1652,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
@@ -1977,38 +1975,38 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
